--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9919477609657581</v>
+        <v>0.9576648310145508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8297388896973659</v>
+        <v>0.5642135675926536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9411040409153665</v>
+        <v>0.8671035126065224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9917141473365311</v>
+        <v>0.976346073653548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9816552420286417</v>
+        <v>0.9035989303718299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05384535949912694</v>
+        <v>0.2830954699412278</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13853682857404</v>
+        <v>2.914105880119938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1678410095143764</v>
+        <v>1.267328307824769</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09029051129933646</v>
+        <v>0.06196877993478338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1290657604068564</v>
+        <v>0.6646485438797762</v>
       </c>
       <c r="L2" t="n">
-        <v>1.329631668538742</v>
+        <v>1.593941618037394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2320460288372265</v>
+        <v>0.5320671667573821</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005223073968157</v>
+        <v>1.027460650152724</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2419247086863268</v>
+        <v>0.5547183675771171</v>
       </c>
       <c r="P2" t="n">
-        <v>127.8432781073363</v>
+        <v>124.5239421772257</v>
       </c>
       <c r="Q2" t="n">
-        <v>202.1947034242966</v>
+        <v>198.8753674941859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914985553468578</v>
+        <v>0.9593847483820723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8297375670531926</v>
+        <v>0.5641561350018505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9351121446667771</v>
+        <v>0.8838073350970657</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9901867436445468</v>
+        <v>0.9824753668147073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9792588695393859</v>
+        <v>0.9163152756458494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05684919954111498</v>
+        <v>0.2715943745851197</v>
       </c>
       <c r="H3" t="n">
-        <v>1.138545673101718</v>
+        <v>2.914489932119092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1849166447684603</v>
+        <v>1.108037212128102</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1069345509547575</v>
+        <v>0.04591119974718708</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1459255978616089</v>
+        <v>0.5769742016504898</v>
       </c>
       <c r="L3" t="n">
-        <v>1.372161943371643</v>
+        <v>1.643446639163209</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2384307017586346</v>
+        <v>0.5211471717136338</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005514450585822</v>
+        <v>1.026345028076494</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2485811903520942</v>
+        <v>0.5433334857368504</v>
       </c>
       <c r="P3" t="n">
-        <v>127.7347062781524</v>
+        <v>124.6068911912869</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.0861315951126</v>
+        <v>198.9583165082472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9909965695101709</v>
+        <v>0.9555979264021174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8296527021150165</v>
+        <v>0.563758837929061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9293014146713473</v>
+        <v>0.8509471316332902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9886712798981278</v>
+        <v>0.9702180729555422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9769084346762396</v>
+        <v>0.8912614245835184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06020598114247235</v>
+        <v>0.2969168706017903</v>
       </c>
       <c r="H4" t="n">
-        <v>1.139113165334068</v>
+        <v>2.91714665947422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.201475994571168</v>
+        <v>1.421398888326686</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1234484816360331</v>
+        <v>0.07802297411518745</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1624622381036006</v>
+        <v>0.7497109325953617</v>
       </c>
       <c r="L4" t="n">
-        <v>1.411861189402989</v>
+        <v>1.549014358912102</v>
       </c>
       <c r="M4" t="n">
-        <v>0.245369071283388</v>
+        <v>0.5449007896872515</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00584006302043</v>
+        <v>1.028801345036464</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2558149406319213</v>
+        <v>0.5680983444043729</v>
       </c>
       <c r="P4" t="n">
-        <v>127.6199671541532</v>
+        <v>124.4286061526431</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9713924711134</v>
+        <v>198.7800314696034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.992310222249867</v>
+        <v>0.9605580449222672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.829623657656142</v>
+        <v>0.5633655038209322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9471864066950887</v>
+        <v>0.9007339982268353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9932089539478349</v>
+        <v>0.9883823699962873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9840446917611573</v>
+        <v>0.9291434983071696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05142157922331041</v>
+        <v>0.2637485352183032</v>
       </c>
       <c r="H5" t="n">
-        <v>1.139307385764299</v>
+        <v>2.919776886466414</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1505075552575695</v>
+        <v>0.946621062144714</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07400168035942546</v>
+        <v>0.03043597695026225</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1122546284659187</v>
+        <v>0.4885285075798862</v>
       </c>
       <c r="L5" t="n">
-        <v>1.284545969739185</v>
+        <v>1.697855487221265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2267632669179698</v>
+        <v>0.5135645385132264</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004987963946032</v>
+        <v>1.025583970861232</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2364170486553426</v>
+        <v>0.535428044142887</v>
       </c>
       <c r="P5" t="n">
-        <v>127.9353947307548</v>
+        <v>124.6655182957639</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.286820047715</v>
+        <v>199.0169436127242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9904674130108431</v>
+        <v>0.9533296791043478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8295099059792734</v>
+        <v>0.5629549192002197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9237366187967619</v>
+        <v>0.8355430068082117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9871990419971579</v>
+        <v>0.9642296136003989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9746412830863691</v>
+        <v>0.8794706675087576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06374445309001973</v>
+        <v>0.3120846507262937</v>
       </c>
       <c r="H6" t="n">
-        <v>1.140068043751298</v>
+        <v>2.922522467715686</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2173344842171161</v>
+        <v>1.568295799080147</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1394913824975095</v>
+        <v>0.09371159656593479</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1784129333573128</v>
+        <v>0.8310036978230407</v>
       </c>
       <c r="L6" t="n">
-        <v>1.448736723544194</v>
+        <v>1.508314569882429</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2524766387015237</v>
+        <v>0.5586453711669808</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006183299668642</v>
+        <v>1.030272640580963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2632250919097399</v>
+        <v>0.5824280611729001</v>
       </c>
       <c r="P6" t="n">
-        <v>127.5057462181637</v>
+        <v>124.3289616230837</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.8571715351239</v>
+        <v>198.680386940044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9925412800543909</v>
+        <v>0.9509652525354449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8293498588650585</v>
+        <v>0.5619218182638492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9532351572627832</v>
+        <v>0.8210089178335578</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9946088336152124</v>
+        <v>0.9584674435029579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9863538233217798</v>
+        <v>0.8683245925139079</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04987649462053526</v>
+        <v>0.3278955820797311</v>
       </c>
       <c r="H7" t="n">
-        <v>1.141138279541001</v>
+        <v>2.929430818434189</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1332698972355036</v>
+        <v>1.70689586855743</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05874726345646629</v>
+        <v>0.1088073842793634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09600858034598497</v>
+        <v>0.9078516264183967</v>
       </c>
       <c r="L7" t="n">
-        <v>1.236973291549024</v>
+        <v>1.471518453482076</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2233304605747619</v>
+        <v>0.5726216744760287</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004838088613368</v>
+        <v>1.031806322679711</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2328381006392155</v>
+        <v>0.5969993646487508</v>
       </c>
       <c r="P7" t="n">
-        <v>127.9964108737842</v>
+        <v>124.2301201371983</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.3478361907444</v>
+        <v>198.5815454541585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9899297780523681</v>
+        <v>0.9609119229203031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8293285839576694</v>
+        <v>0.5615430282680025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9184592394440237</v>
+        <v>0.9173932577263822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9857904388405596</v>
+        <v>0.9937062088994155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9724816211213563</v>
+        <v>0.9416759962421464</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06733962053292288</v>
+        <v>0.2613821514159786</v>
       </c>
       <c r="H8" t="n">
-        <v>1.141280544944674</v>
+        <v>2.931963788880583</v>
       </c>
       <c r="I8" t="n">
-        <v>0.232373897649217</v>
+        <v>0.7877549283193386</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1548408588148776</v>
+        <v>0.01648853344493982</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1936073782320473</v>
+        <v>0.4021217225121768</v>
       </c>
       <c r="L8" t="n">
-        <v>1.482849750697889</v>
+        <v>1.757514654418866</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2594987871511597</v>
+        <v>0.5112554659032787</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006532035857923</v>
+        <v>1.02535442837602</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2705461877567281</v>
+        <v>0.5330206695314947</v>
       </c>
       <c r="P8" t="n">
-        <v>127.3960130007136</v>
+        <v>124.6835435217157</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.7474383176739</v>
+        <v>199.0349688386759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9893973007329825</v>
+        <v>0.9485801977734312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829123647876523</v>
+        <v>0.5607473887026904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9134939521579815</v>
+        <v>0.8074038385329848</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9844584677606522</v>
+        <v>0.9529821507558446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.970444524343273</v>
+        <v>0.8578735947288413</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07090029881948717</v>
+        <v>0.3438444542554842</v>
       </c>
       <c r="H9" t="n">
-        <v>1.142650953462944</v>
+        <v>2.937284234317408</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2465239147908121</v>
+        <v>1.836636710215395</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1693552793247902</v>
+        <v>0.1231778060920072</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2079395076117956</v>
+        <v>0.9799072632150401</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51429592712897</v>
+        <v>1.438295558025354</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2662711002333659</v>
+        <v>0.586382515305056</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006877426551579</v>
+        <v>1.033353385228045</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2776068122274645</v>
+        <v>0.6113460329607371</v>
       </c>
       <c r="P9" t="n">
-        <v>127.2929612615832</v>
+        <v>124.1351317834588</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.6443865785435</v>
+        <v>198.4865571004191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9888795224870744</v>
+        <v>0.9462281718350947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8289060718096144</v>
+        <v>0.5594963240394217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9088535955691546</v>
+        <v>0.7947459192625594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9832101877632978</v>
+        <v>0.9478030292283465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.968538032317706</v>
+        <v>0.8481357941033673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0743626843340241</v>
+        <v>0.3595724625352241</v>
       </c>
       <c r="H10" t="n">
-        <v>1.144105885624208</v>
+        <v>2.945650109481309</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2597479482640798</v>
+        <v>1.957345238515881</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1829577224025889</v>
+        <v>0.1367461176480787</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2213527586000944</v>
+        <v>1.04704567808198</v>
       </c>
       <c r="L10" t="n">
-        <v>1.543189307331244</v>
+        <v>1.408324835368279</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2726952224261072</v>
+        <v>0.5996436129362374</v>
       </c>
       <c r="N10" t="n">
-        <v>1.007213282711087</v>
+        <v>1.034879023674533</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2843044226017171</v>
+        <v>0.6251716829723344</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1976020352278</v>
+        <v>124.0456791147227</v>
       </c>
       <c r="Q10" t="n">
-        <v>201.5490273521881</v>
+        <v>198.3971044316829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9925829769095315</v>
+        <v>0.9600789670072938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8288644277903974</v>
+        <v>0.5582905343201132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9590867649244393</v>
+        <v>0.9330836222474749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9958290012393226</v>
+        <v>0.9978665393740658</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9884838541774665</v>
+        <v>0.9533173815479662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04959766755821417</v>
+        <v>0.2669521314416812</v>
       </c>
       <c r="H11" t="n">
-        <v>1.144384359372465</v>
+        <v>2.953713230886476</v>
       </c>
       <c r="I11" t="n">
-        <v>0.116594054741741</v>
+        <v>0.6381283768003698</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04545115946737055</v>
+        <v>0.005589260323704093</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08102260710455578</v>
+        <v>0.3218588185620369</v>
       </c>
       <c r="L11" t="n">
-        <v>1.186984258302687</v>
+        <v>1.822776764229574</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2227053379652454</v>
+        <v>0.5166741056426973</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004811042004628</v>
+        <v>1.025894724103377</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2321863652660298</v>
+        <v>0.5386699919827509</v>
       </c>
       <c r="P11" t="n">
-        <v>128.0076229427859</v>
+        <v>124.6413718392899</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.3590482597462</v>
+        <v>198.9927971562502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9883829589272463</v>
+        <v>0.9439465177544308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.828684024613707</v>
+        <v>0.5582156294760767</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9045399181184663</v>
+        <v>0.7830259498076267</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9820483431939183</v>
+        <v>0.9429447228091107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9667646320811137</v>
+        <v>0.8391076017803069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07768320714505977</v>
+        <v>0.3748298938786739</v>
       </c>
       <c r="H12" t="n">
-        <v>1.145590716245674</v>
+        <v>2.954214119923454</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2720410153826998</v>
+        <v>2.069109283965037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1956182830570324</v>
+        <v>0.1494739547496144</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2338296334871234</v>
+        <v>1.109291614818301</v>
       </c>
       <c r="L12" t="n">
-        <v>1.569664074549365</v>
+        <v>1.381315664453644</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2787170736518662</v>
+        <v>0.6122335288749498</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007535377993138</v>
+        <v>1.036359015510639</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2905826365011071</v>
+        <v>0.6382975776972766</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1102323384519</v>
+        <v>123.9625659445005</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.4616576554122</v>
+        <v>198.3139912614608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.987911765201904</v>
+        <v>0.9417603058376879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8284634279446715</v>
+        <v>0.5569390519430115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9005478752055226</v>
+        <v>0.7722162912689863</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9809732511973897</v>
+        <v>0.9384105202686622</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9651235608647385</v>
+        <v>0.8307705271483068</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08083408175607118</v>
+        <v>0.3894491030325147</v>
       </c>
       <c r="H13" t="n">
-        <v>1.147065847187269</v>
+        <v>2.96275059976516</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2834174921893745</v>
+        <v>2.172192416804943</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2073335053766815</v>
+        <v>0.1613527014444917</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2453754987830279</v>
+        <v>1.166772559124717</v>
       </c>
       <c r="L13" t="n">
-        <v>1.593873585283862</v>
+        <v>1.356987545873023</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2843133513503563</v>
+        <v>0.6240585733987754</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007841017166333</v>
+        <v>1.037777098916094</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2964171593271139</v>
+        <v>0.6506260388476981</v>
       </c>
       <c r="P13" t="n">
-        <v>127.0307131969552</v>
+        <v>123.886044189567</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.3821385139154</v>
+        <v>198.2374695065273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9874683932997572</v>
+        <v>0.9396858820233671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8282483819171504</v>
+        <v>0.5556906853272139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8968672316616213</v>
+        <v>0.7622787238312319</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9799827987525903</v>
+        <v>0.9341982729648206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9636110935711995</v>
+        <v>0.8230977319474662</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08379891170726622</v>
+        <v>0.4033207846307211</v>
       </c>
       <c r="H14" t="n">
-        <v>1.148503860963498</v>
+        <v>2.971098433073198</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2939065467471454</v>
+        <v>2.266959109076465</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2181264148442721</v>
+        <v>0.1723879867658141</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2560165626572909</v>
+        <v>1.219673550549363</v>
       </c>
       <c r="L14" t="n">
-        <v>1.615958491026265</v>
+        <v>1.335085164143865</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2894804167940661</v>
+        <v>0.6350754164906095</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008128609751509</v>
+        <v>1.039122671119978</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3018041974440624</v>
+        <v>0.6621118917579607</v>
       </c>
       <c r="P14" t="n">
-        <v>126.9586705167305</v>
+        <v>123.8160460840586</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.3100958336907</v>
+        <v>198.1674714010188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9923614936640106</v>
+        <v>0.9377325852579431</v>
       </c>
       <c r="C15" t="n">
-        <v>0.828101444871175</v>
+        <v>0.5544872111071087</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9645344986063177</v>
+        <v>0.7531669570697201</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9967575754496779</v>
+        <v>0.9302981260397867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9903062721546155</v>
+        <v>0.8160553333432519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05107872704084862</v>
+        <v>0.4163824890952159</v>
       </c>
       <c r="H15" t="n">
-        <v>1.149486429666519</v>
+        <v>2.97914607072453</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1010691675518066</v>
+        <v>2.35385079581436</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03533253394534065</v>
+        <v>0.1826056285632407</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06820086465545379</v>
+        <v>1.268228198290991</v>
       </c>
       <c r="L15" t="n">
-        <v>1.134843939213068</v>
+        <v>1.316708746587062</v>
       </c>
       <c r="M15" t="n">
-        <v>0.226006033195684</v>
+        <v>0.6452770638223676</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004954706812534</v>
+        <v>1.04038967442728</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2356275779258092</v>
+        <v>0.6727478443369531</v>
       </c>
       <c r="P15" t="n">
-        <v>127.9487743380402</v>
+        <v>123.7523019924221</v>
       </c>
       <c r="Q15" t="n">
-        <v>202.3001996550004</v>
+        <v>198.1037273093823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9870540149836649</v>
+        <v>0.9359048719659498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8280417248328669</v>
+        <v>0.5533395701449504</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8934850905030787</v>
+        <v>0.7448314941654315</v>
       </c>
       <c r="E16" t="n">
-        <v>0.979073545397499</v>
+        <v>0.9266990484982915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9622219865212213</v>
+        <v>0.8096069936773361</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08656986141501313</v>
+        <v>0.4286044162946208</v>
       </c>
       <c r="H16" t="n">
-        <v>1.14988577783767</v>
+        <v>2.986820351122883</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3035449327279934</v>
+        <v>2.433339488891336</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2280345019979068</v>
+        <v>0.1920345259424948</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2657897173629501</v>
+        <v>1.312687036620527</v>
       </c>
       <c r="L16" t="n">
-        <v>1.636074959521976</v>
+        <v>1.301469615731784</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2942275673947177</v>
+        <v>0.6546788650129319</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008397395686272</v>
+        <v>1.041575218184249</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3067534440737402</v>
+        <v>0.6825498996686112</v>
       </c>
       <c r="P16" t="n">
-        <v>126.8936070891977</v>
+        <v>123.6944417839905</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.2450324061579</v>
+        <v>198.0458671009507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9866687849817964</v>
+        <v>0.9342035087966242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8278453366541154</v>
+        <v>0.5522548658884383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89038502729545</v>
+        <v>0.7372206312499738</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9782412432566246</v>
+        <v>0.9233869911109787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9609495887782117</v>
+        <v>0.8037143058392981</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08914589621132805</v>
+        <v>0.4399814396419585</v>
       </c>
       <c r="H17" t="n">
-        <v>1.151199026493266</v>
+        <v>2.994073773480785</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3123794562914702</v>
+        <v>2.505918247058021</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2371040557188414</v>
+        <v>0.200711485207507</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2747417560051558</v>
+        <v>1.353314867890415</v>
       </c>
       <c r="L17" t="n">
-        <v>1.654369963847134</v>
+        <v>1.287794135202778</v>
       </c>
       <c r="M17" t="n">
-        <v>0.298573100280866</v>
+        <v>0.6633109675272666</v>
       </c>
       <c r="N17" t="n">
-        <v>1.008647274606402</v>
+        <v>1.042678805104893</v>
       </c>
       <c r="O17" t="n">
-        <v>0.311283975291345</v>
+        <v>0.6915494886578967</v>
       </c>
       <c r="P17" t="n">
-        <v>126.8349619362698</v>
+        <v>123.6420454711829</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.18638725323</v>
+        <v>197.9934707881432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9863123612432115</v>
+        <v>0.9326267292269124</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8276602754208975</v>
+        <v>0.5512366325989989</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8875503240169846</v>
+        <v>0.7302835229715482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9774814889655401</v>
+        <v>0.920346345924965</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9597871160741682</v>
+        <v>0.7983391279222078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0915293033924257</v>
+        <v>0.4505253718850234</v>
       </c>
       <c r="H18" t="n">
-        <v>1.152436531811923</v>
+        <v>3.000882704175798</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3204577602587705</v>
+        <v>2.572071942073785</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2453830592432862</v>
+        <v>0.208677396220843</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2829204097510283</v>
+        <v>1.390374665976357</v>
       </c>
       <c r="L18" t="n">
-        <v>1.670987648969837</v>
+        <v>1.275520463435857</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3025381023812136</v>
+        <v>0.6712118681050145</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008878468382782</v>
+        <v>1.043701581042003</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3154177757397902</v>
+        <v>0.6997867469303582</v>
       </c>
       <c r="P18" t="n">
-        <v>126.7821922046333</v>
+        <v>123.59468176826</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.1336175215935</v>
+        <v>197.9461070852203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9859837447929933</v>
+        <v>0.9311706218655673</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8274871134666157</v>
+        <v>0.550286359901007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.884963054114124</v>
+        <v>0.7239689656877949</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9767892456894228</v>
+        <v>0.917561042617587</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9587270371736917</v>
+        <v>0.7934429947162926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09372676310817459</v>
+        <v>0.4602623685150959</v>
       </c>
       <c r="H19" t="n">
-        <v>1.153594466597543</v>
+        <v>3.007237182082873</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3278309315107789</v>
+        <v>2.632288862430661</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2529263987018466</v>
+        <v>0.2159743601657918</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2903786651063127</v>
+        <v>1.424131633803631</v>
       </c>
       <c r="L19" t="n">
-        <v>1.686063701628209</v>
+        <v>1.264507763104679</v>
       </c>
       <c r="M19" t="n">
-        <v>0.306148269810846</v>
+        <v>0.6784263913757306</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00909162499914</v>
+        <v>1.044646083114227</v>
       </c>
       <c r="O19" t="n">
-        <v>0.319181635470979</v>
+        <v>0.7073084073928306</v>
       </c>
       <c r="P19" t="n">
-        <v>126.734743010067</v>
+        <v>123.5519171715178</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.0861683270273</v>
+        <v>197.903342488478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9856817558697535</v>
+        <v>0.9298302446643965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8273259658782846</v>
+        <v>0.5494036472757405</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8826061190198015</v>
+        <v>0.7182288380025741</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9761596238167825</v>
+        <v>0.9150140365408833</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9577621025437417</v>
+        <v>0.7889893995433286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09574616442841037</v>
+        <v>0.4692254770311947</v>
       </c>
       <c r="H20" t="n">
-        <v>1.154672061262729</v>
+        <v>3.013139885472548</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3345476973422427</v>
+        <v>2.687027903685155</v>
       </c>
       <c r="J20" t="n">
-        <v>0.259787355940029</v>
+        <v>0.2226470307722714</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2971675266411358</v>
+        <v>1.454837470970769</v>
       </c>
       <c r="L20" t="n">
-        <v>1.699727863710492</v>
+        <v>1.254616504017624</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3094287711710247</v>
+        <v>0.6850003481978638</v>
       </c>
       <c r="N20" t="n">
-        <v>1.009287509706106</v>
+        <v>1.045515516974445</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3226017945656344</v>
+        <v>0.7141622311668488</v>
       </c>
       <c r="P20" t="n">
-        <v>126.6921094198253</v>
+        <v>123.513343729608</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.0435347367856</v>
+        <v>197.8647690465682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9854049444293174</v>
+        <v>0.9285996994103067</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8271767263533831</v>
+        <v>0.5485871589994011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8804614015296071</v>
+        <v>0.7130164767435627</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9755876116528015</v>
+        <v>0.9126892011272563</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9568847667993435</v>
+        <v>0.7849429991040785</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09759720380520646</v>
+        <v>0.477454138811433</v>
       </c>
       <c r="H21" t="n">
-        <v>1.15567002665293</v>
+        <v>3.018599746336013</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3406596879485947</v>
+        <v>2.736734055470763</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2660205431390953</v>
+        <v>0.2287376565745816</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3033400804115186</v>
+        <v>1.482735856022672</v>
       </c>
       <c r="L21" t="n">
-        <v>1.71210623571862</v>
+        <v>1.245737196746541</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3124055118034995</v>
+        <v>0.6909805632660249</v>
       </c>
       <c r="N21" t="n">
-        <v>1.009467063072875</v>
+        <v>1.046313708490612</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3257052612095362</v>
+        <v>0.7203970363712132</v>
       </c>
       <c r="P21" t="n">
-        <v>126.6538128710206</v>
+        <v>123.4785743360957</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.0052381879809</v>
+        <v>197.829999653056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9851517851158343</v>
+        <v>0.9274726378562378</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8270390955480027</v>
+        <v>0.5478345199332031</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8785125437674002</v>
+        <v>0.7082881865870601</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9750687097604218</v>
+        <v>0.9105700441703066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9560882125654848</v>
+        <v>0.7812704433637032</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09929008130015875</v>
+        <v>0.4849908046131332</v>
       </c>
       <c r="H22" t="n">
-        <v>1.15659036448224</v>
+        <v>3.023632647237263</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3462135198123171</v>
+        <v>2.781824005404527</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2716749904337847</v>
+        <v>0.2342894440110118</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3089442905111443</v>
+        <v>1.50805672470777</v>
       </c>
       <c r="L22" t="n">
-        <v>1.723310462626496</v>
+        <v>1.237762545778946</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3151032867174806</v>
+        <v>0.6964128119248907</v>
       </c>
       <c r="N22" t="n">
-        <v>1.009631274519459</v>
+        <v>1.047044775444603</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3285178859867695</v>
+        <v>0.7260605471017919</v>
       </c>
       <c r="P22" t="n">
-        <v>126.6194191982436</v>
+        <v>123.4472506955699</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.9708445152038</v>
+        <v>197.7986760125301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9917839715541081</v>
+        <v>0.9264424121072145</v>
       </c>
       <c r="C23" t="n">
-        <v>0.826980180934213</v>
+        <v>0.5471424460978596</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9693234893812755</v>
+        <v>0.7040024547944359</v>
       </c>
       <c r="E23" t="n">
-        <v>0.997249764589853</v>
+        <v>0.9086414191113394</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9916573374337471</v>
+        <v>0.7779401469339096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05494062004901104</v>
+        <v>0.4918799289406056</v>
       </c>
       <c r="H23" t="n">
-        <v>1.156984326775929</v>
+        <v>3.028260548160913</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08742155812806124</v>
+        <v>2.822693627522197</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02996917414070328</v>
+        <v>0.2393420741792701</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05869535534959845</v>
+        <v>1.531017846210757</v>
       </c>
       <c r="L23" t="n">
-        <v>1.080909541280235</v>
+        <v>1.230599531607451</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2343941553217807</v>
+        <v>0.7013415209016258</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005329315748687</v>
+        <v>1.047713029984509</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2443727997766203</v>
+        <v>0.7311990814235008</v>
       </c>
       <c r="P23" t="n">
-        <v>127.8030046248968</v>
+        <v>123.4190412782856</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.154429941857</v>
+        <v>197.7704665952458</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_23</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9849208076714707</v>
+        <v>0.925502307720355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8269125067667761</v>
+        <v>0.5465078842817335</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8767446891363083</v>
+        <v>0.7001208728581552</v>
       </c>
       <c r="E24" t="n">
-        <v>0.97459854486831</v>
+        <v>0.9068872448159606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9553660743029967</v>
+        <v>0.7749224961959336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1008346285341716</v>
+        <v>0.498166411304317</v>
       </c>
       <c r="H24" t="n">
-        <v>1.157436864245191</v>
+        <v>3.032503865947237</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3512515310879419</v>
+        <v>2.859709193271689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2767983531374128</v>
+        <v>0.2439376765873199</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3140249421126773</v>
+        <v>1.551823395118768</v>
       </c>
       <c r="L24" t="n">
-        <v>1.73343586930004</v>
+        <v>1.224165221470435</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3175446874601615</v>
+        <v>0.7058090473381005</v>
       </c>
       <c r="N24" t="n">
-        <v>1.009781097726614</v>
+        <v>1.048322827424635</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3310632222134625</v>
+        <v>0.7358567997094309</v>
       </c>
       <c r="P24" t="n">
-        <v>126.5885468905897</v>
+        <v>123.3936421970613</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.9399722075499</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_4_8_24</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9847102950503448</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8267963638252882</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.875140860813365</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9741727843345486</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9547115332887495</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1022423274009618</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.15821351262971</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3558221021253155</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2814378438266316</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.3186300087945706</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.742590158504566</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.319753541655072</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.00991764645383</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.3333661119044089</v>
-      </c>
-      <c r="P25" t="n">
-        <v>126.5608190490362</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>200.9122443659964</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_4_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9907356363778583</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8254031946140101</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.973152537017006</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9971232951728342</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9923348806633189</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06195084219973346</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.16752964156048</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.07650958333983991</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.03134730488839442</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0539284550574422</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.025596886867821</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.2488992611474238</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.006009316944092</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.2594954179869695</v>
-      </c>
-      <c r="P26" t="n">
-        <v>127.5628281523383</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>201.9142534692986</v>
+        <v>197.7450675140215</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1266 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9576648310145508</v>
+        <v>0.9947933354248697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5642135675926536</v>
+        <v>0.8230036790458068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8671035126065224</v>
+        <v>0.9895771348232683</v>
       </c>
       <c r="E2" t="n">
-        <v>0.976346073653548</v>
+        <v>0.9628235536057135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9035989303718299</v>
+        <v>0.9689925110120133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2830954699412278</v>
+        <v>0.034816989988382</v>
       </c>
       <c r="H2" t="n">
-        <v>2.914105880119938</v>
+        <v>1.183575213213809</v>
       </c>
       <c r="I2" t="n">
-        <v>1.267328307824769</v>
+        <v>0.01459746046563103</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06196877993478338</v>
+        <v>0.1754447566920725</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6646485438797762</v>
+        <v>0.09502131754281845</v>
       </c>
       <c r="L2" t="n">
-        <v>1.593941618037394</v>
+        <v>0.328829871219019</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5320671667573821</v>
+        <v>0.1865931134537982</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027460650152724</v>
+        <v>1.003377295940625</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5547183675771171</v>
+        <v>0.19453676859452</v>
       </c>
       <c r="P2" t="n">
-        <v>124.5239421772257</v>
+        <v>128.7152995865688</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.8753674941859</v>
+        <v>203.0667249035291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9593847483820723</v>
+        <v>0.994721642148273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5641561350018505</v>
+        <v>0.8230005182549445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8838073350970657</v>
+        <v>0.9889226955339483</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9824753668147073</v>
+        <v>0.9612722374071667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9163152756458494</v>
+        <v>0.9676485069975018</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2715943745851197</v>
+        <v>0.03529640325910179</v>
       </c>
       <c r="H3" t="n">
-        <v>2.914489932119092</v>
+        <v>1.18359634943686</v>
       </c>
       <c r="I3" t="n">
-        <v>1.108037212128102</v>
+        <v>0.01551401762059943</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04591119974718708</v>
+        <v>0.1827657978190246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5769742016504898</v>
+        <v>0.09913996875934239</v>
       </c>
       <c r="L3" t="n">
-        <v>1.643446639163209</v>
+        <v>0.3303595840929214</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5211471717136338</v>
+        <v>0.1878733702766355</v>
       </c>
       <c r="N3" t="n">
-        <v>1.026345028076494</v>
+        <v>1.003423799687607</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5433334857368504</v>
+        <v>0.1958715286008025</v>
       </c>
       <c r="P3" t="n">
-        <v>124.6068911912869</v>
+        <v>128.6879484218222</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.9583165082472</v>
+        <v>203.0393737387824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9555979264021174</v>
+        <v>0.9948519630242719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.563758837929061</v>
+        <v>0.8229863320515078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8509471316332902</v>
+        <v>0.9902783976658739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9702180729555422</v>
+        <v>0.9645057917720716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8912614245835184</v>
+        <v>0.9704481568427278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2969168706017903</v>
+        <v>0.03442494696122421</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91714665947422</v>
+        <v>1.183691212644562</v>
       </c>
       <c r="I4" t="n">
-        <v>1.421398888326686</v>
+        <v>0.01361532585606083</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07802297411518745</v>
+        <v>0.1675058627304329</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7497109325953617</v>
+        <v>0.09056054405794225</v>
       </c>
       <c r="L4" t="n">
-        <v>1.549014358912102</v>
+        <v>0.3271265210677814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5449007896872515</v>
+        <v>0.1855396102217104</v>
       </c>
       <c r="N4" t="n">
-        <v>1.028801345036464</v>
+        <v>1.003339267227499</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5680983444043729</v>
+        <v>0.1934384155487899</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4286061526431</v>
+        <v>128.7379475501476</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.7800314696034</v>
+        <v>203.0893728671078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9605580449222672</v>
+        <v>0.9946418272017532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5633655038209322</v>
+        <v>0.8229825177316994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9007339982268353</v>
+        <v>0.9883148079980293</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9883823699962873</v>
+        <v>0.959846672914262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9291434983071696</v>
+        <v>0.9664119404069796</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2637485352183032</v>
+        <v>0.03583012617399329</v>
       </c>
       <c r="H5" t="n">
-        <v>2.919776886466414</v>
+        <v>1.183716719018684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.946621062144714</v>
+        <v>0.01636537798290522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03043597695026225</v>
+        <v>0.1894933858448931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4885285075798862</v>
+        <v>0.1029293819138991</v>
       </c>
       <c r="L5" t="n">
-        <v>1.697855487221265</v>
+        <v>0.33173676497747</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5135645385132264</v>
+        <v>0.1892884734314091</v>
       </c>
       <c r="N5" t="n">
-        <v>1.025583970861232</v>
+        <v>1.003475571544809</v>
       </c>
       <c r="O5" t="n">
-        <v>0.535428044142887</v>
+        <v>0.1973468756265422</v>
       </c>
       <c r="P5" t="n">
-        <v>124.6655182957639</v>
+        <v>128.6579324524184</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.0169436127242</v>
+        <v>203.0093577693787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9533296791043478</v>
+        <v>0.9945576123856988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5629549192002197</v>
+        <v>0.8229540669225817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8355430068082117</v>
+        <v>0.9877522757568111</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9642296136003989</v>
+        <v>0.9585396382650869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8794706675087576</v>
+        <v>0.9652769494758476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3120846507262937</v>
+        <v>0.03639327103672278</v>
       </c>
       <c r="H6" t="n">
-        <v>2.922522467715686</v>
+        <v>1.183906969710258</v>
       </c>
       <c r="I6" t="n">
-        <v>1.568295799080147</v>
+        <v>0.01715321722025401</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09371159656593479</v>
+        <v>0.1956616025049949</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8310036978230407</v>
+        <v>0.1064075201700184</v>
       </c>
       <c r="L6" t="n">
-        <v>1.508314569882429</v>
+        <v>0.3329735150472559</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5586453711669808</v>
+        <v>0.1907702047928942</v>
       </c>
       <c r="N6" t="n">
-        <v>1.030272640580963</v>
+        <v>1.003530197371439</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5824280611729001</v>
+        <v>0.1988916873596924</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3289616230837</v>
+        <v>128.6267427661139</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.680386940044</v>
+        <v>202.9781680830742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9509652525354449</v>
+        <v>0.9948910581964119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5619218182638492</v>
+        <v>0.8229412998546712</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8210089178335578</v>
+        <v>0.991026166690776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9584674435029579</v>
+        <v>0.966323436904382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8683245925139079</v>
+        <v>0.9720185915662972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3278955820797311</v>
+        <v>0.03416351736510777</v>
       </c>
       <c r="H7" t="n">
-        <v>2.929430818434189</v>
+        <v>1.183992343152162</v>
       </c>
       <c r="I7" t="n">
-        <v>1.70689586855743</v>
+        <v>0.0125680582771997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1088073842793634</v>
+        <v>0.1589279501293044</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9078516264183967</v>
+        <v>0.08574800420325203</v>
       </c>
       <c r="L7" t="n">
-        <v>1.471518453482076</v>
+        <v>0.3252399892193191</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5726216744760287</v>
+        <v>0.1848337560217499</v>
       </c>
       <c r="N7" t="n">
-        <v>1.031806322679711</v>
+        <v>1.003313908196922</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5969993646487508</v>
+        <v>0.1927025116742175</v>
       </c>
       <c r="P7" t="n">
-        <v>124.2301201371983</v>
+        <v>128.7531938959998</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.5815454541585</v>
+        <v>203.10461921296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9609119229203031</v>
+        <v>0.9944718161042199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5615430282680025</v>
+        <v>0.8229185372529462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9173932577263822</v>
+        <v>0.9872330901547318</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9937062088994155</v>
+        <v>0.9573440921493459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9416759962421464</v>
+        <v>0.9642377813353271</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2613821514159786</v>
+        <v>0.03696699116602779</v>
       </c>
       <c r="H8" t="n">
-        <v>2.931963788880583</v>
+        <v>1.18414455677471</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7877549283193386</v>
+        <v>0.01788034850058538</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01648853344493982</v>
+        <v>0.2013036774673446</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4021217225121768</v>
+        <v>0.109592012983965</v>
       </c>
       <c r="L8" t="n">
-        <v>1.757514654418866</v>
+        <v>0.3340865192718269</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5112554659032787</v>
+        <v>0.1922680190932121</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02535442837602</v>
+        <v>1.003585849013479</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5330206695314947</v>
+        <v>0.200453266715678</v>
       </c>
       <c r="P8" t="n">
-        <v>124.6835435217157</v>
+        <v>128.5954597903424</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.0349688386759</v>
+        <v>202.9468851073026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9485801977734312</v>
+        <v>0.9943865178920077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5607473887026904</v>
+        <v>0.8228785154609422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8074038385329848</v>
+        <v>0.9867556587543069</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9529821507558446</v>
+        <v>0.9562526995878156</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8578735947288413</v>
+        <v>0.9632883162105741</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3438444542554842</v>
+        <v>0.03753738070385264</v>
       </c>
       <c r="H9" t="n">
-        <v>2.937284234317408</v>
+        <v>1.184412182682124</v>
       </c>
       <c r="I9" t="n">
-        <v>1.836636710215395</v>
+        <v>0.01854900206892574</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1231778060920072</v>
+        <v>0.2064542262955576</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9799072632150401</v>
+        <v>0.1125016141822417</v>
       </c>
       <c r="L9" t="n">
-        <v>1.438295558025354</v>
+        <v>0.3350924020934783</v>
       </c>
       <c r="M9" t="n">
-        <v>0.586382515305056</v>
+        <v>0.1937456598322983</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033353385228045</v>
+        <v>1.003641177583563</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6113460329607371</v>
+        <v>0.201993813680165</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1351317834588</v>
+        <v>128.5648360474606</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.4865571004191</v>
+        <v>202.9162613644208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9462281718350947</v>
+        <v>0.9949022692311449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5594963240394217</v>
+        <v>0.8228593165796219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7947459192625594</v>
+        <v>0.9918187335821896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9478030292283465</v>
+        <v>0.9682787731979698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8481357941033673</v>
+        <v>0.9737052520879348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3595724625352241</v>
+        <v>0.03408854912422583</v>
       </c>
       <c r="H10" t="n">
-        <v>2.945650109481309</v>
+        <v>1.184540565689916</v>
       </c>
       <c r="I10" t="n">
-        <v>1.957345238515881</v>
+        <v>0.01145805026427764</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1367461176480787</v>
+        <v>0.1497002392114468</v>
       </c>
       <c r="K10" t="n">
-        <v>1.04704567808198</v>
+        <v>0.08057929463520055</v>
       </c>
       <c r="L10" t="n">
-        <v>1.408324835368279</v>
+        <v>0.3231369327840627</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5996436129362374</v>
+        <v>0.1846308455384035</v>
       </c>
       <c r="N10" t="n">
-        <v>1.034879023674533</v>
+        <v>1.003306636174393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6251716829723344</v>
+        <v>0.1924909628715124</v>
       </c>
       <c r="P10" t="n">
-        <v>124.0456791147227</v>
+        <v>128.7575875077914</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.3971044316829</v>
+        <v>203.1090128247516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_0</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9600789670072938</v>
+        <v>0.9943032124142593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5582905343201132</v>
+        <v>0.8228360362777846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9330836222474749</v>
+        <v>0.986317474264473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9978665393740658</v>
+        <v>0.9552581175642995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9533173815479662</v>
+        <v>0.9624223630675159</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2669521314416812</v>
+        <v>0.03809444481714241</v>
       </c>
       <c r="H11" t="n">
-        <v>2.953713230886476</v>
+        <v>1.184696241175498</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6381283768003698</v>
+        <v>0.01916268944361072</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005589260323704093</v>
+        <v>0.2111479024816954</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3218588185620369</v>
+        <v>0.1151552959626531</v>
       </c>
       <c r="L11" t="n">
-        <v>1.822776764229574</v>
+        <v>0.3359919096125983</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5166741056426973</v>
+        <v>0.1951779824087297</v>
       </c>
       <c r="N11" t="n">
-        <v>1.025894724103377</v>
+        <v>1.003695213569129</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5386699919827509</v>
+        <v>0.2034871131939916</v>
       </c>
       <c r="P11" t="n">
-        <v>124.6413718392899</v>
+        <v>128.5353736256089</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.9927971562502</v>
+        <v>202.8867989425692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9439465177544308</v>
+        <v>0.9942229041811914</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5582156294760767</v>
+        <v>0.8227925293493923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7830259498076267</v>
+        <v>0.9859163757247802</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9429447228091107</v>
+        <v>0.9543526199177029</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8391076017803069</v>
+        <v>0.9616334788476223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3748298938786739</v>
+        <v>0.03863146634145304</v>
       </c>
       <c r="H12" t="n">
-        <v>2.954214119923454</v>
+        <v>1.184987172205988</v>
       </c>
       <c r="I12" t="n">
-        <v>2.069109283965037</v>
+        <v>0.01972443709904986</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1494739547496144</v>
+        <v>0.2154211676724422</v>
       </c>
       <c r="K12" t="n">
-        <v>1.109291614818301</v>
+        <v>0.1175728028427514</v>
       </c>
       <c r="L12" t="n">
-        <v>1.381315664453644</v>
+        <v>0.3368055224583078</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122335288749498</v>
+        <v>0.1965488904610073</v>
       </c>
       <c r="N12" t="n">
-        <v>1.036359015510639</v>
+        <v>1.003747305395984</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6382975776972766</v>
+        <v>0.2049163836402255</v>
       </c>
       <c r="P12" t="n">
-        <v>123.9625659445005</v>
+        <v>128.5073762888107</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.3139912614608</v>
+        <v>202.8588016057709</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9417603058376879</v>
+        <v>0.9941463934604355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5569390519430115</v>
+        <v>0.8227491299195455</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7722162912689863</v>
+        <v>0.9855498217519957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9384105202686622</v>
+        <v>0.9535301528396167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8307705271483068</v>
+        <v>0.9609163826436721</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3894491030325147</v>
+        <v>0.03914309388344695</v>
       </c>
       <c r="H13" t="n">
-        <v>2.96275059976516</v>
+        <v>1.185277384393209</v>
       </c>
       <c r="I13" t="n">
-        <v>2.172192416804943</v>
+        <v>0.02023780430043969</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1613527014444917</v>
+        <v>0.2193025912725274</v>
       </c>
       <c r="K13" t="n">
-        <v>1.166772559124717</v>
+        <v>0.1197703179698455</v>
       </c>
       <c r="L13" t="n">
-        <v>1.356987545873023</v>
+        <v>0.3375374619575229</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6240585733987754</v>
+        <v>0.1978461368929071</v>
       </c>
       <c r="N13" t="n">
-        <v>1.037777098916094</v>
+        <v>1.003796933971609</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6506260388476981</v>
+        <v>0.2062688565384017</v>
       </c>
       <c r="P13" t="n">
-        <v>123.886044189567</v>
+        <v>128.4810625471008</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.2374695065273</v>
+        <v>202.8324878640611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9396858820233671</v>
+        <v>0.9948747694912055</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5556906853272139</v>
+        <v>0.822728714707685</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7622787238312319</v>
+        <v>0.9926528806585094</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9341982729648206</v>
+        <v>0.9703706773569495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8230977319474662</v>
+        <v>0.9755066685530361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4033207846307211</v>
+        <v>0.0342724400118254</v>
       </c>
       <c r="H14" t="n">
-        <v>2.971098433073198</v>
+        <v>1.185413901008924</v>
       </c>
       <c r="I14" t="n">
-        <v>2.266959109076465</v>
+        <v>0.01028980825379069</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1723879867658141</v>
+        <v>0.1398280310852902</v>
       </c>
       <c r="K14" t="n">
-        <v>1.219673550549363</v>
+        <v>0.07505891966954044</v>
       </c>
       <c r="L14" t="n">
-        <v>1.335085164143865</v>
+        <v>0.3208001930395378</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6350754164906095</v>
+        <v>0.1851281718481156</v>
       </c>
       <c r="N14" t="n">
-        <v>1.039122671119978</v>
+        <v>1.003324473843543</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6621118917579607</v>
+        <v>0.1930094613918363</v>
       </c>
       <c r="P14" t="n">
-        <v>123.8160460840586</v>
+        <v>128.7468274919709</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.1674714010188</v>
+        <v>203.0982528089311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9377325852579431</v>
+        <v>0.9940740479494214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5544872111071087</v>
+        <v>0.8227066465118287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7531669570697201</v>
+        <v>0.9852151376022303</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9302981260397867</v>
+        <v>0.9527831487676508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8160553333432519</v>
+        <v>0.9602647767672265</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4163824890952159</v>
+        <v>0.03962686864871892</v>
       </c>
       <c r="H15" t="n">
-        <v>2.97914607072453</v>
+        <v>1.18556147113623</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35385079581436</v>
+        <v>0.02070653708761804</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1826056285632407</v>
+        <v>0.2228278864625</v>
       </c>
       <c r="K15" t="n">
-        <v>1.268228198290991</v>
+        <v>0.1217671403801506</v>
       </c>
       <c r="L15" t="n">
-        <v>1.316708746587062</v>
+        <v>0.3381954781045974</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6452770638223676</v>
+        <v>0.1990649859938179</v>
       </c>
       <c r="N15" t="n">
-        <v>1.04038967442728</v>
+        <v>1.003843860789565</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6727478443369531</v>
+        <v>0.2075395945689037</v>
       </c>
       <c r="P15" t="n">
-        <v>123.7523019924221</v>
+        <v>128.4564957791386</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.1037273093823</v>
+        <v>202.8079210960989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9359048719659498</v>
+        <v>0.9940061037850229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5533395701449504</v>
+        <v>0.8226656043589859</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7448314941654315</v>
+        <v>0.9849104227949103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9266990484982915</v>
+        <v>0.9521054900390962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8096069936773361</v>
+        <v>0.9596733283754162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4286044162946208</v>
+        <v>0.04008121158890623</v>
       </c>
       <c r="H16" t="n">
-        <v>2.986820351122883</v>
+        <v>1.185835920201271</v>
       </c>
       <c r="I16" t="n">
-        <v>2.433339488891336</v>
+        <v>0.02113329712698583</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1920345259424948</v>
+        <v>0.2260259239911702</v>
       </c>
       <c r="K16" t="n">
-        <v>1.312687036620527</v>
+        <v>0.1235796123758729</v>
       </c>
       <c r="L16" t="n">
-        <v>1.301469615731784</v>
+        <v>0.3387890329777619</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6546788650129319</v>
+        <v>0.2002029260248367</v>
       </c>
       <c r="N16" t="n">
-        <v>1.041575218184249</v>
+        <v>1.003887932679985</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6825498996686112</v>
+        <v>0.2087259790629035</v>
       </c>
       <c r="P16" t="n">
-        <v>123.6944417839905</v>
+        <v>128.4336951867966</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.0458671009507</v>
+        <v>202.7851205037568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9342035087966242</v>
+        <v>0.9939427028017065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5522548658884383</v>
+        <v>0.8226263892507637</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7372206312499738</v>
+        <v>0.9846330333736798</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9233869911109787</v>
+        <v>0.951491377755851</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8037143058392981</v>
+        <v>0.9591370792106944</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4399814396419585</v>
+        <v>0.04050517425627773</v>
       </c>
       <c r="H17" t="n">
-        <v>2.994073773480785</v>
+        <v>1.186098151810522</v>
       </c>
       <c r="I17" t="n">
-        <v>2.505918247058021</v>
+        <v>0.02152178733973792</v>
       </c>
       <c r="J17" t="n">
-        <v>0.200711485207507</v>
+        <v>0.2289240702790875</v>
       </c>
       <c r="K17" t="n">
-        <v>1.353314867890415</v>
+        <v>0.1252229283561786</v>
       </c>
       <c r="L17" t="n">
-        <v>1.287794135202778</v>
+        <v>0.3393214794099362</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6633109675272666</v>
+        <v>0.2012589731074809</v>
       </c>
       <c r="N17" t="n">
-        <v>1.042678805104893</v>
+        <v>1.003929057642136</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6915494886578967</v>
+        <v>0.2098269842561748</v>
       </c>
       <c r="P17" t="n">
-        <v>123.6420454711829</v>
+        <v>128.4126511072318</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.9934707881432</v>
+        <v>202.7640764241921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9326267292269124</v>
+        <v>0.994794774507754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5512366325989989</v>
+        <v>0.822534543476628</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7302835229715482</v>
+        <v>0.9935229513533691</v>
       </c>
       <c r="E18" t="n">
-        <v>0.920346345924965</v>
+        <v>0.9725940023752716</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7983391279222078</v>
+        <v>0.9774174373666197</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4505253718850234</v>
+        <v>0.03480736683450822</v>
       </c>
       <c r="H18" t="n">
-        <v>3.000882704175798</v>
+        <v>1.186712324925078</v>
       </c>
       <c r="I18" t="n">
-        <v>2.572071942073785</v>
+        <v>0.009071254395982721</v>
       </c>
       <c r="J18" t="n">
-        <v>0.208677396220843</v>
+        <v>0.1293356157331095</v>
       </c>
       <c r="K18" t="n">
-        <v>1.390374665976357</v>
+        <v>0.06920343842574225</v>
       </c>
       <c r="L18" t="n">
-        <v>1.275520463435857</v>
+        <v>0.3181964125765217</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6712118681050145</v>
+        <v>0.1865673252059648</v>
       </c>
       <c r="N18" t="n">
-        <v>1.043701581042003</v>
+        <v>1.003376362481457</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6997867469303582</v>
+        <v>0.1945098824875873</v>
       </c>
       <c r="P18" t="n">
-        <v>123.59468176826</v>
+        <v>128.7158524479165</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.9461070852203</v>
+        <v>203.0672777648767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9311706218655673</v>
+        <v>0.9946445650457556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.550286359901007</v>
+        <v>0.8222580430478408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7239689656877949</v>
+        <v>0.9944209749451398</v>
       </c>
       <c r="E19" t="n">
-        <v>0.917561042617587</v>
+        <v>0.9749377446744292</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7934429947162926</v>
+        <v>0.9794273166383309</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4602623685150959</v>
+        <v>0.03581181819854263</v>
       </c>
       <c r="H19" t="n">
-        <v>3.007237182082873</v>
+        <v>1.188561284565546</v>
       </c>
       <c r="I19" t="n">
-        <v>2.632288862430661</v>
+        <v>0.0078135518683379</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2159743601657918</v>
+        <v>0.1182749217371442</v>
       </c>
       <c r="K19" t="n">
-        <v>1.424131633803631</v>
+        <v>0.06304423680274104</v>
       </c>
       <c r="L19" t="n">
-        <v>1.264507763104679</v>
+        <v>0.3152961979935581</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6784263913757306</v>
+        <v>0.189240107267309</v>
       </c>
       <c r="N19" t="n">
-        <v>1.044646083114227</v>
+        <v>1.003473795645996</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7073084073928306</v>
+        <v>0.1972964504147046</v>
       </c>
       <c r="P19" t="n">
-        <v>123.5519171715178</v>
+        <v>128.658954645549</v>
       </c>
       <c r="Q19" t="n">
-        <v>197.903342488478</v>
+        <v>203.0103799625092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298302446643965</v>
+        <v>0.9944016107977208</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5494036472757405</v>
+        <v>0.8218753224935919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7182288380025741</v>
+        <v>0.9953355033051766</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9150140365408833</v>
+        <v>0.9773824442517305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7889893995433286</v>
+        <v>0.9815186901456984</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4692254770311947</v>
+        <v>0.03743645437385281</v>
       </c>
       <c r="H20" t="n">
-        <v>3.013139885472548</v>
+        <v>1.191120538674075</v>
       </c>
       <c r="I20" t="n">
-        <v>2.687027903685155</v>
+        <v>0.006532734036199224</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2226470307722714</v>
+        <v>0.1067377856167119</v>
       </c>
       <c r="K20" t="n">
-        <v>1.454837470970769</v>
+        <v>0.05663529907091773</v>
       </c>
       <c r="L20" t="n">
-        <v>1.254616504017624</v>
+        <v>0.3120617360882448</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850003481978638</v>
+        <v>0.1934850236422778</v>
       </c>
       <c r="N20" t="n">
-        <v>1.045515516974445</v>
+        <v>1.003631387590668</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7141622311668488</v>
+        <v>0.2017220816679441</v>
       </c>
       <c r="P20" t="n">
-        <v>123.513343729608</v>
+        <v>128.5702206668206</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.8647690465682</v>
+        <v>202.9216459837808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9285996994103067</v>
+        <v>0.9940373025525355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5485871589994011</v>
+        <v>0.8213562294298666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7130164767435627</v>
+        <v>0.9962508171131375</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9126892011272563</v>
+        <v>0.979898330464679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7849429991040785</v>
+        <v>0.9836650945107053</v>
       </c>
       <c r="G21" t="n">
-        <v>0.477454138811433</v>
+        <v>0.03987258528689221</v>
       </c>
       <c r="H21" t="n">
-        <v>3.018599746336013</v>
+        <v>1.194591716381409</v>
       </c>
       <c r="I21" t="n">
-        <v>2.736734055470763</v>
+        <v>0.005250816166323743</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2287376565745816</v>
+        <v>0.09486470232590181</v>
       </c>
       <c r="K21" t="n">
-        <v>1.482735856022672</v>
+        <v>0.05005772128570513</v>
       </c>
       <c r="L21" t="n">
-        <v>1.245737196746541</v>
+        <v>0.3084561448699135</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6909805632660249</v>
+        <v>0.1996812091482126</v>
       </c>
       <c r="N21" t="n">
-        <v>1.046313708490612</v>
+        <v>1.003867695641599</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7203970363712132</v>
+        <v>0.2081820516187387</v>
       </c>
       <c r="P21" t="n">
-        <v>123.4785743360957</v>
+        <v>128.4441325535586</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.829999653056</v>
+        <v>202.7955578705189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9274726378562378</v>
+        <v>0.9935153399969651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5478345199332031</v>
+        <v>0.8206626509640929</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7082881865870601</v>
+        <v>0.997146352196586</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9105700441703066</v>
+        <v>0.9824408445834634</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7812704433637032</v>
+        <v>0.9858274229835287</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4849908046131332</v>
+        <v>0.04336295129940829</v>
       </c>
       <c r="H22" t="n">
-        <v>3.023632647237263</v>
+        <v>1.199229678775674</v>
       </c>
       <c r="I22" t="n">
-        <v>2.781824005404527</v>
+        <v>0.003996598851356561</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2342894440110118</v>
+        <v>0.08286595542509982</v>
       </c>
       <c r="K22" t="n">
-        <v>1.50805672470777</v>
+        <v>0.04343134465367166</v>
       </c>
       <c r="L22" t="n">
-        <v>1.237762545778946</v>
+        <v>0.3044190073106574</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6964128119248907</v>
+        <v>0.2082377278482655</v>
       </c>
       <c r="N22" t="n">
-        <v>1.047044775444603</v>
+        <v>1.004206265947915</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7260605471017919</v>
+        <v>0.2171028390342884</v>
       </c>
       <c r="P22" t="n">
-        <v>123.4472506955699</v>
+        <v>128.2762997182876</v>
       </c>
       <c r="Q22" t="n">
-        <v>197.7986760125301</v>
+        <v>202.6277250352479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9264424121072145</v>
+        <v>0.9927898562378108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5471424460978596</v>
+        <v>0.8197462315348532</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7040024547944359</v>
+        <v>0.9979943111154216</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9086414191113394</v>
+        <v>0.9849468742550418</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7779401469339096</v>
+        <v>0.9879508356554425</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4918799289406056</v>
+        <v>0.04821426453741817</v>
       </c>
       <c r="H23" t="n">
-        <v>3.028260548160913</v>
+        <v>1.205357779718723</v>
       </c>
       <c r="I23" t="n">
-        <v>2.822693627522197</v>
+        <v>0.002809013040325076</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2393420741792701</v>
+        <v>0.07103938756731838</v>
       </c>
       <c r="K23" t="n">
-        <v>1.531017846210757</v>
+        <v>0.03692422407223574</v>
       </c>
       <c r="L23" t="n">
-        <v>1.230599531607451</v>
+        <v>0.2998971038449801</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7013415209016258</v>
+        <v>0.219577468191566</v>
       </c>
       <c r="N23" t="n">
-        <v>1.047713029984509</v>
+        <v>1.004676850007906</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7311990814235008</v>
+        <v>0.2289253356005017</v>
       </c>
       <c r="P23" t="n">
-        <v>123.4190412782856</v>
+        <v>128.0642007138978</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.7704665952458</v>
+        <v>202.415626030858</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.925502307720355</v>
+        <v>0.9918027756158844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5465078842817335</v>
+        <v>0.8185459300311868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7001208728581552</v>
+        <v>0.9987589947829357</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9068872448159606</v>
+        <v>0.9873284277711697</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7749224961959336</v>
+        <v>0.9899593657025697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.498166411304317</v>
+        <v>0.05481487720132922</v>
       </c>
       <c r="H24" t="n">
-        <v>3.032503865947237</v>
+        <v>1.21338420140062</v>
       </c>
       <c r="I24" t="n">
-        <v>2.859709193271689</v>
+        <v>0.001738056118597672</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2439376765873199</v>
+        <v>0.05980025317682949</v>
       </c>
       <c r="K24" t="n">
-        <v>1.551823395118768</v>
+        <v>0.0307691570986958</v>
       </c>
       <c r="L24" t="n">
-        <v>1.224165221470435</v>
+        <v>0.2948182955156824</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7058090473381005</v>
+        <v>0.2341257721852279</v>
       </c>
       <c r="N24" t="n">
-        <v>1.048322827424635</v>
+        <v>1.005317118519426</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7358567997094309</v>
+        <v>0.2440929910143148</v>
       </c>
       <c r="P24" t="n">
-        <v>123.3936421970613</v>
+        <v>127.8075872801932</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.7450675140215</v>
+        <v>202.1590125971534</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_4_8_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.990481012476183</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8169840378301629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9993933938910013</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9894663553567666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9917505274107873</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06365351340267131</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.223828581740718</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0008495656946695734</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.04971084922729071</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02528020746098014</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2891205688071573</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2522964791721662</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.006174478393827</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2630372626162361</v>
+      </c>
+      <c r="P25" t="n">
+        <v>127.508601513434</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>201.8600268303943</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_4_8_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9887322975365281</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8149619137046097</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9998351624009296</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9912006405785883</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9931868676017059</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.07534717825623526</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.237350535079319</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0002308588180773542</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.04152633246229086</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.02087859540417445</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2827030278515476</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2744944047812911</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.007308779976306</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.286180199874582</v>
+      </c>
+      <c r="P26" t="n">
+        <v>127.1712976062028</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>201.5227229231631</v>
       </c>
     </row>
   </sheetData>
